--- a/NextShop Тест-кейс Козлов А.С...xlsx
+++ b/NextShop Тест-кейс Козлов А.С...xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D751454-391D-41AC-BE8A-54FA620F0EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C98DFB3-5750-44E9-A71D-9D429C6CFA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -488,15 +488,12 @@
   <si>
     <t>пройден</t>
   </si>
-  <si>
-    <t>не пройден</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,14 +514,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -583,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -659,9 +648,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,7 +933,7 @@
   <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1005,7 @@
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J2" s="7"/>
@@ -1047,7 +1033,7 @@
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="7"/>
@@ -1078,7 +1064,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1105,7 +1091,7 @@
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J5" s="7"/>
@@ -1135,7 +1121,7 @@
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J6" s="7"/>
@@ -1164,7 +1150,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1191,7 +1177,7 @@
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J8" s="7"/>
@@ -1219,7 +1205,7 @@
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J9" s="7"/>
@@ -1247,7 +1233,7 @@
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J10" s="7"/>
@@ -1275,7 +1261,7 @@
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J11" s="7"/>
@@ -1305,7 +1291,7 @@
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J12" s="7"/>
@@ -1333,7 +1319,7 @@
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J13" s="7"/>
@@ -1363,7 +1349,7 @@
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J14" s="7"/>
@@ -1391,7 +1377,7 @@
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J15" s="7"/>
@@ -1419,7 +1405,7 @@
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J16" s="7"/>
@@ -1449,7 +1435,7 @@
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J17" s="7"/>
@@ -1479,7 +1465,7 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J18" s="7"/>
@@ -1507,7 +1493,7 @@
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J19" s="7"/>
@@ -1535,7 +1521,7 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J20" s="7"/>
@@ -1567,7 +1553,7 @@
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J21" s="7"/>
